--- a/process_models/ITIL Processes SWOT.xlsx
+++ b/process_models/ITIL Processes SWOT.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>S + O</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>IT Processes</t>
+  </si>
+  <si>
+    <t>Вместо "Process 1 … 5" вписываем свои процессы. Вместо S1, S2, O1, W1, T1, T2 вписываем сильные стороны, возможности, слабые стороны и угрозы. Баллы 1 ... 10 вписываем в желтые ячейки. Результаты ранжирования находятся в столбце "Coefficient of importance", ранги в столбце "Rank" выставляем вручную (по гистограмме).</t>
   </si>
 </sst>
 </file>
@@ -111,13 +114,19 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -300,24 +309,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -344,12 +344,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -369,27 +363,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
@@ -398,6 +371,51 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -472,12 +490,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="101861632"/>
-        <c:axId val="142364672"/>
+        <c:axId val="75930240"/>
+        <c:axId val="75944704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="101861632"/>
+        <c:axId val="75930240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -503,14 +520,14 @@
         </c:title>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142364672"/>
+        <c:crossAx val="75944704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="142364672"/>
+        <c:axId val="75944704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -537,7 +554,7 @@
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101861632"/>
+        <c:crossAx val="75930240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -546,7 +563,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -872,10 +889,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -884,395 +901,434 @@
     <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="28" t="s">
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="30"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="7" t="s">
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="31"/>
+    </row>
+    <row r="2" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A2" s="26"/>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="10" t="s">
+      <c r="K2" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="35">
         <v>5</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="35">
         <v>2</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="35">
         <v>1</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="9">
         <f>SUM(B3:D3)</f>
         <v>8</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="37">
         <v>9</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="37">
         <v>9</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="37">
         <v>9</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="9">
         <f>SUM(F3:H3)</f>
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="12" t="s">
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="35">
         <v>7</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="35">
         <v>9</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="35">
         <v>3</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="9">
         <f t="shared" ref="E4:E7" si="0">SUM(B4:D4)</f>
         <v>19</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="37">
         <v>5</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="37">
         <v>5</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="37">
         <v>7</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="9">
         <f t="shared" ref="I4:I7" si="1">SUM(F4:H4)</f>
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="12" t="s">
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="35">
         <v>1</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="35">
         <v>8</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="35">
         <v>3</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="9">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="37">
         <v>9</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="37">
         <v>9</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="37">
         <v>9</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="9">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="12" t="s">
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="35">
         <v>3</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="35">
         <v>5</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="35">
         <v>8</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="9">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="37">
         <v>2</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="37">
         <v>3</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="37">
         <v>3</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="9">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A7" s="14" t="s">
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="39"/>
+    </row>
+    <row r="7" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="36">
         <v>3</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="36">
         <v>1</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="36">
         <v>8</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="11">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="38">
         <v>7</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="38">
         <v>9</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="38">
         <v>9</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="11">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1">
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1">
-      <c r="B9" s="11" t="s">
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+    </row>
+    <row r="8" spans="1:16" ht="15.75" customHeight="1">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:16" ht="15.75" customHeight="1">
+      <c r="B9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="F9" s="11" t="s">
+      <c r="D9" s="8"/>
+      <c r="F9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="13"/>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1">
-      <c r="B10" s="17" t="s">
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:16" ht="15.75" customHeight="1">
+      <c r="B10" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="8">
         <v>10</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="F10" s="17" t="s">
+      <c r="D10" s="8"/>
+      <c r="F10" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="8">
         <v>1</v>
       </c>
-      <c r="H10" s="13"/>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B11" s="17"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A12" s="24" t="s">
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B11" s="12"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A12" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="27"/>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A13" s="25"/>
-      <c r="B13" s="18" t="s">
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="28"/>
+    </row>
+    <row r="13" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A13" s="26"/>
+      <c r="B13" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="20" t="s">
+      <c r="E13" s="33"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="12" t="s">
+    <row r="14" spans="1:16">
+      <c r="A14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="21">
+      <c r="B14" s="16">
         <f>E3</f>
         <v>8</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="16">
         <f>I3</f>
         <v>27</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="31">
+      <c r="D14" s="2"/>
+      <c r="E14" s="19">
         <f>B14/C14</f>
         <v>0.29629629629629628</v>
       </c>
-      <c r="F14" s="32"/>
-      <c r="G14" s="22">
+      <c r="F14" s="20"/>
+      <c r="G14" s="17">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="12" t="s">
+    <row r="15" spans="1:16">
+      <c r="A15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="21">
+      <c r="B15" s="16">
         <f t="shared" ref="B15:B18" si="2">E4</f>
         <v>19</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="16">
         <f t="shared" ref="C15:C18" si="3">I4</f>
         <v>17</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="33">
+      <c r="D15" s="3"/>
+      <c r="E15" s="21">
         <f>B15/C15</f>
         <v>1.1176470588235294</v>
       </c>
-      <c r="F15" s="34"/>
-      <c r="G15" s="22">
+      <c r="F15" s="22"/>
+      <c r="G15" s="17">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="12" t="s">
+    <row r="16" spans="1:16">
+      <c r="A16" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="21">
+      <c r="B16" s="16">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="16">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="33">
+      <c r="D16" s="3"/>
+      <c r="E16" s="21">
         <f>B16/C16</f>
         <v>0.44444444444444442</v>
       </c>
-      <c r="F16" s="34"/>
-      <c r="G16" s="22">
+      <c r="F16" s="22"/>
+      <c r="G16" s="17">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="21">
+      <c r="B17" s="16">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="16">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="33">
+      <c r="D17" s="3"/>
+      <c r="E17" s="21">
         <f>B17/C17</f>
         <v>2</v>
       </c>
-      <c r="F17" s="34"/>
-      <c r="G17" s="22">
+      <c r="F17" s="22"/>
+      <c r="G17" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="5">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="5">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="35">
+      <c r="D18" s="4"/>
+      <c r="E18" s="23">
         <f>B18/C18</f>
         <v>0.48</v>
       </c>
-      <c r="F18" s="36"/>
-      <c r="G18" s="23">
+      <c r="F18" s="24"/>
+      <c r="G18" s="18">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="K2:P7"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B12:G12"/>
     <mergeCell ref="A12:A13"/>
